--- a/Documentacion/gedevelop.xlsx
+++ b/Documentacion/gedevelop.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
   <si>
     <t>Sujeto 1</t>
   </si>
@@ -291,6 +290,15 @@
   </si>
   <si>
     <t>Porcentual por apartados</t>
+  </si>
+  <si>
+    <t>Buenos</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Malos</t>
   </si>
 </sst>
 </file>
@@ -626,18 +634,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -669,6 +665,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,6 +696,2268 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t> GDEVELOP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> criterios</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-3DE2-43F3-9994-6FFFCDFE3EA5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-3DE2-43F3-9994-6FFFCDFE3EA5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002C-3DE2-43F3-9994-6FFFCDFE3EA5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-3DE2-43F3-9994-6FFFCDFE3EA5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-3DE2-43F3-9994-6FFFCDFE3EA5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-3DE2-43F3-9994-6FFFCDFE3EA5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-3DE2-43F3-9994-6FFFCDFE3EA5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-3DE2-43F3-9994-6FFFCDFE3EA5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3DE2-43F3-9994-6FFFCDFE3EA5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$H$20:$H$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Licencias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sistemas operativos soportados y requerimientos. </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Estado actual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Resultados profesionales</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Escalabilidad</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Editor Gráfico/Visual</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Funcionamiento y dificultad de uso</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Documentación, tutoriales y comunidad.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Requisitos e instalación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$K$20:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83958333333333324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DE2-43F3-9994-6FFFCDFE3EA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="394922448"/>
+        <c:axId val="394922776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="394922448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394922776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="394922776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="15000"/>
+                      <a:lumOff val="85000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394922448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Gdevelop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> clasificación criterios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6B66-4370-94EA-1F15E652CF2E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6B66-4370-94EA-1F15E652CF2E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6B66-4370-94EA-1F15E652CF2E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4E8B5A42-7583-48D3-9FAA-9163DFF5AA20}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-ES"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6B66-4370-94EA-1F15E652CF2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1C11383B-B41B-4021-9A1E-3CB9D95CA0A1}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-ES"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6B66-4370-94EA-1F15E652CF2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F95F1765-B061-4DA2-BEC6-F1F41F9F47DB}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-ES"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6B66-4370-94EA-1F15E652CF2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$H$34:$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Malos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Buenos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$I$34:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B66-4370-94EA-1F15E652CF2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="46000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>525780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36193E5B-7752-4C79-80F0-5418CF51E89D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>525780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1501140</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBF0EBF-EB75-43E2-A984-9618398D8C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1000,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B27" sqref="A18:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,8 +3549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1309,16 +3579,16 @@
       <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="43" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1332,16 +3602,16 @@
       <c r="E8" s="8">
         <v>4</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="42">
         <v>6</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="42">
         <v>6</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="44">
         <f>J8*1/I8</f>
         <v>1</v>
       </c>
@@ -1356,38 +3626,38 @@
       <c r="E9" s="9">
         <v>2</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="42">
         <v>16</v>
       </c>
-      <c r="J9" s="46">
-        <v>11</v>
-      </c>
-      <c r="K9" s="48">
+      <c r="J9" s="42">
+        <v>12.5</v>
+      </c>
+      <c r="K9" s="44">
         <f t="shared" ref="K9:K16" si="0">J9*1/I9</f>
-        <v>0.6875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="10" spans="3:11" ht="30" x14ac:dyDescent="0.4">
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="8">
         <v>6</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="42">
         <v>24</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="42">
         <v>20.149999999999999</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="44">
         <f t="shared" si="0"/>
         <v>0.83958333333333324</v>
       </c>
@@ -1396,16 +3666,16 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="42">
         <v>8</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="42">
         <v>6.15</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="44">
         <f t="shared" si="0"/>
         <v>0.76875000000000004</v>
       </c>
@@ -1420,16 +3690,16 @@
       <c r="E12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="42">
         <v>14</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="42">
         <v>1.5</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="44">
         <f t="shared" si="0"/>
         <v>0.10714285714285714</v>
       </c>
@@ -1444,16 +3714,16 @@
       <c r="E13" s="16">
         <v>5</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="42">
         <v>12</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="42">
         <v>2</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="44">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
@@ -1468,21 +3738,21 @@
       <c r="E14" s="17">
         <v>7</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="42">
         <v>4</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="42">
         <v>4</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="29.4" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:11" ht="43.8" x14ac:dyDescent="0.35">
       <c r="C15" s="15" t="s">
         <v>29</v>
       </c>
@@ -1492,59 +3762,59 @@
       <c r="E15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="42">
         <v>8</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="42">
+        <v>4</v>
+      </c>
+      <c r="K15" s="44">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="48">
+      <c r="D16" s="48"/>
+      <c r="E16" s="17">
+        <v>11</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="42">
+        <v>8</v>
+      </c>
+      <c r="J16" s="42">
+        <v>8</v>
+      </c>
+      <c r="K16" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C16" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="17">
-        <v>11</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="46">
-        <v>8</v>
-      </c>
-      <c r="J16" s="46">
-        <v>8</v>
-      </c>
-      <c r="K16" s="48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="42">
         <f>SUM(I8:I16)</f>
         <v>100</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="42">
         <f>SUM(J8:J16)</f>
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C18" s="19" t="s">
         <v>32</v>
       </c>
@@ -1554,11 +3824,11 @@
       <c r="E18" s="14">
         <v>4</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-    </row>
-    <row r="19" spans="3:10" ht="34.799999999999997" x14ac:dyDescent="0.35">
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+    </row>
+    <row r="19" spans="3:11" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="C19" s="15" t="s">
         <v>33</v>
       </c>
@@ -1568,11 +3838,11 @@
       <c r="E19" s="16">
         <v>3</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-    </row>
-    <row r="20" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" spans="3:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C20" s="15" t="s">
         <v>34</v>
       </c>
@@ -1582,11 +3852,21 @@
       <c r="E20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-    </row>
-    <row r="21" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H20" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="42">
+        <v>8</v>
+      </c>
+      <c r="J20" s="42">
+        <v>8</v>
+      </c>
+      <c r="K20" s="44">
+        <f t="shared" ref="K20:K27" si="1">J20*1/I20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="43.8" x14ac:dyDescent="0.35">
       <c r="C21" s="15" t="s">
         <v>37</v>
       </c>
@@ -1596,31 +3876,61 @@
       <c r="E21" s="16">
         <v>3</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-    </row>
-    <row r="22" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C22" s="36" t="s">
+      <c r="H21" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="42">
         <v>8</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="J21" s="42">
+        <v>4</v>
+      </c>
+      <c r="K21" s="44">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C22" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="48"/>
       <c r="E22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="42">
+        <v>4</v>
+      </c>
+      <c r="J22" s="42">
+        <v>4</v>
+      </c>
+      <c r="K22" s="44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-    </row>
-    <row r="24" spans="3:10" ht="18.600000000000001" x14ac:dyDescent="0.4">
+      <c r="H23" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="42">
+        <v>12</v>
+      </c>
+      <c r="J23" s="42">
+        <v>2</v>
+      </c>
+      <c r="K23" s="44">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="C24" s="24" t="s">
         <v>54</v>
       </c>
@@ -1630,19 +3940,39 @@
       <c r="E24" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H24" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="42">
+        <v>14</v>
+      </c>
+      <c r="J24" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="K24" s="44">
+        <f t="shared" si="1"/>
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-    </row>
-    <row r="26" spans="3:10" ht="55.8" x14ac:dyDescent="0.4">
+      <c r="H25" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="42">
+        <v>8</v>
+      </c>
+      <c r="J25" s="42">
+        <v>6.15</v>
+      </c>
+      <c r="K25" s="44">
+        <f t="shared" si="1"/>
+        <v>0.76875000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="55.8" x14ac:dyDescent="0.4">
       <c r="C26" s="10" t="s">
         <v>59</v>
       </c>
@@ -1652,11 +3982,21 @@
       <c r="E26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-    </row>
-    <row r="27" spans="3:10" ht="18.600000000000001" x14ac:dyDescent="0.4">
+      <c r="H26" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="42">
+        <v>24</v>
+      </c>
+      <c r="J26" s="42">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="K26" s="44">
+        <f t="shared" si="1"/>
+        <v>0.83958333333333324</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="30" x14ac:dyDescent="0.4">
       <c r="C27" s="7" t="s">
         <v>61</v>
       </c>
@@ -1666,23 +4006,48 @@
       <c r="E27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="46"/>
-    </row>
-    <row r="28" spans="3:10" ht="18.600000000000001" x14ac:dyDescent="0.4">
-      <c r="C28" s="34" t="s">
+      <c r="H27" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="42">
+        <v>16</v>
+      </c>
+      <c r="J27" s="42">
+        <v>12.5</v>
+      </c>
+      <c r="K27" s="44">
+        <f t="shared" si="1"/>
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="18.600000000000001" x14ac:dyDescent="0.4">
+      <c r="C28" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H28" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="42">
+        <v>6</v>
+      </c>
+      <c r="J28" s="42">
+        <v>6</v>
+      </c>
+      <c r="K28" s="44">
+        <f>J28*1/I28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="3:10" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:11" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="C30" s="27" t="s">
         <v>65</v>
       </c>
@@ -1693,7 +4058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:10" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:11" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="C31" s="30" t="s">
         <v>66</v>
       </c>
@@ -1703,8 +4068,11 @@
       <c r="E31" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="3:10" ht="18.600000000000001" x14ac:dyDescent="0.4">
+      <c r="H31" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="C32" s="30" t="s">
         <v>68</v>
       </c>
@@ -1714,8 +4082,11 @@
       <c r="E32" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" ht="18.600000000000001" x14ac:dyDescent="0.4">
+      <c r="H32" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="C33" s="27" t="s">
         <v>8</v>
       </c>
@@ -1724,34 +4095,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="37.200000000000003" x14ac:dyDescent="0.4">
-      <c r="C34" s="41" t="s">
+    <row r="34" spans="3:9" ht="37.200000000000003" x14ac:dyDescent="0.4">
+      <c r="C34" s="37" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C35" s="38" t="s">
+      <c r="H34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C35" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C36" s="42" t="s">
+      <c r="H35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C36" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="39">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="C37" s="33" t="s">
         <v>75</v>
       </c>
@@ -1759,62 +4148,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C38" s="33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="3:5" ht="34.799999999999997" x14ac:dyDescent="0.35">
-      <c r="C39" s="38" t="s">
+    <row r="39" spans="3:9" ht="34.799999999999997" x14ac:dyDescent="0.35">
+      <c r="C39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="36">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="3:5" ht="18.600000000000001" x14ac:dyDescent="0.4">
-      <c r="C40" s="41" t="s">
+    <row r="40" spans="3:9" ht="18.600000000000001" x14ac:dyDescent="0.4">
+      <c r="C40" s="37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C41" s="38" t="s">
+    <row r="41" spans="3:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C41" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="36">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C42" s="42" t="s">
+    <row r="42" spans="3:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C42" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="39">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C43" s="42" t="s">
+    <row r="43" spans="3:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C43" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="44">
+      <c r="E43" s="40">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C44" s="45" t="s">
+    <row r="44" spans="3:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C44" s="41" t="s">
         <v>75</v>
       </c>
       <c r="E44">
@@ -1830,6 +4219,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1837,8 +4227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1904,11 +4294,11 @@
         <v>5</v>
       </c>
       <c r="D5" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="21">
         <f t="shared" ref="E5:E12" si="0">O5</f>
-        <v>4.125</v>
+        <v>4.875</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>39</v>
@@ -1920,21 +4310,21 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
       <c r="M5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <f>SUM((I5*I4)+(J5*J4)+(K5*K4)+(L5*L4)+(M5*M4))</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O12" si="1">N5/8</f>
-        <v>4.125</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1945,11 +4335,11 @@
         <v>5</v>
       </c>
       <c r="D6" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="21">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4.625</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>40</v>
@@ -1961,21 +4351,21 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <f>SUM((I6*I4)+(J6*J4)+(K6*K4)+(L6*L4)+(M6*M4))</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>4.25</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
@@ -1990,7 +4380,7 @@
       </c>
       <c r="E7" s="21">
         <f t="shared" si="0"/>
-        <v>3.375</v>
+        <v>4</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>41</v>
@@ -1999,24 +4389,24 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <f>SUM((I7*I4)+(J7*J4)+(K7*K4)+(L7*L4)+(M7*M4))</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>3.375</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -2031,7 +4421,7 @@
       </c>
       <c r="E8" s="21">
         <f t="shared" si="0"/>
-        <v>3.625</v>
+        <v>3.375</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>42</v>
@@ -2043,21 +4433,21 @@
         <v>1</v>
       </c>
       <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
         <v>2</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
         <f>SUM((I8*I4)+(J8*J4)+(K8*K4)+(L8*L4)+(M8*M4))</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>3.625</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -2065,37 +4455,37 @@
         <v>43</v>
       </c>
       <c r="C9" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="21">
         <v>2</v>
       </c>
       <c r="E9" s="21">
         <f t="shared" si="0"/>
-        <v>3.625</v>
+        <v>2.875</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>43</v>
       </c>
       <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
         <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>6</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
         <f>SUM((I9*I4)+(J9*J4)+(K9*K4)+(L9*L4)+(M9*M4))</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>3.625</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2103,14 +4493,14 @@
         <v>44</v>
       </c>
       <c r="C10" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="21">
         <v>3</v>
       </c>
       <c r="E10" s="21">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>44</v>
@@ -2119,21 +4509,21 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f>SUM((I10*I4)+(J10*J4)+(K10*K4)+(L10*L4)+(M10*M4))</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -2148,7 +4538,7 @@
       </c>
       <c r="E11" s="21">
         <f t="shared" si="0"/>
-        <v>3.625</v>
+        <v>3.75</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>45</v>
@@ -2160,21 +4550,21 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <f>SUM((I11*I4)+(J11*J4)+(K11*K4)+(L11*L4)+(M11*M4))</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>3.625</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -2189,7 +4579,7 @@
       </c>
       <c r="E12" s="21">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3.625</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>46</v>
@@ -2201,21 +4591,21 @@
         <v>0</v>
       </c>
       <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
         <v>3</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
         <f>SUM((I12*I4)+(J12*J4)+(K12*K4)+(L12*L4)+(M12*M4))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -2239,15 +4629,15 @@
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N13">
         <f t="shared" si="2"/>
